--- a/dist/template/kinh_doanh.xlsx
+++ b/dist/template/kinh_doanh.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F0DE67-CBCD-474A-9CC7-B266691C66F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C622ADD-F1D1-44BE-A9FE-9B37F453E2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2052" yWindow="2436" windowWidth="13632" windowHeight="8232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -600,9 +600,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/dist/template/kinh_doanh.xlsx
+++ b/dist/template/kinh_doanh.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C622ADD-F1D1-44BE-A9FE-9B37F453E2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0645AE8-EDD7-44E8-85D4-863A937244A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -258,35 +258,8 @@
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -313,7 +286,34 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -600,166 +600,166 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="49" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" style="4" customWidth="1"/>
-    <col min="11" max="12" width="9.109375" style="4"/>
-    <col min="13" max="13" width="18.109375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" style="4"/>
-    <col min="15" max="15" width="20.33203125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="19.6640625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="18.44140625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="20.44140625" style="4" customWidth="1"/>
-    <col min="19" max="16384" width="9.109375" style="4"/>
+    <col min="1" max="1" width="12.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="9.109375" style="1"/>
+    <col min="13" max="13" width="18.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" style="1"/>
+    <col min="15" max="15" width="20.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.44140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.44140625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="11" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="15"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="12"/>
-      <c r="O3" s="13"/>
+    <row r="3" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="6"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="3"/>
+      <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D4" s="18"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D5" s="18"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D6" s="18"/>
+      <c r="D6" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
